--- a/Mataquito/Geology/combined_subwatershed_summary.xlsx
+++ b/Mataquito/Geology/combined_subwatershed_summary.xlsx
@@ -1,15 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Glong1/Desktop/Andes/AndesTG/Mataquito/Geology/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83642DD9-0678-D746-B989-9ED930DA918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geologic Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -163,8 +189,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +253,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +305,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -305,6 +339,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,9 +374,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,19 +550,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="I290" sqref="I290"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -537,18 +575,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>635.2043826481934</v>
+        <v>635.20438264819336</v>
       </c>
       <c r="C4">
-        <v>46.01862512522809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>46.018625125228091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -556,65 +594,65 @@
         <v>292.2234795234375</v>
       </c>
       <c r="C5">
-        <v>21.17070209892873</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>21.170702098928729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>203.4814151561279</v>
+        <v>203.48141515612789</v>
       </c>
       <c r="C6">
-        <v>14.74160950367206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>14.741609503672059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>92.5796639066162</v>
+        <v>92.579663906616204</v>
       </c>
       <c r="C7">
-        <v>6.707115007261826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>6.7071150072618257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>82.44520132812499</v>
+        <v>82.445201328124995</v>
       </c>
       <c r="C8">
-        <v>5.972904024174922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>5.9729040241749223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>39.88729183947754</v>
+        <v>39.887291839477541</v>
       </c>
       <c r="C9">
-        <v>2.889712949978348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>2.8897129499783478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>34.4987749038086</v>
+        <v>34.498774903808602</v>
       </c>
       <c r="C10">
-        <v>2.499331290756028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>2.4993312907560279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -622,12 +660,12 @@
         <v>1380.320209305786</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -643,7 +681,7 @@
         <v>1.376656078491211</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -651,28 +689,28 @@
         <v>1.376656078491211</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09963517418188075</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>9.9635174181880753E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1381.696865384277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1381.6968653842771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,73 +721,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25">
-        <v>2205.492893267212</v>
+        <v>2205.4928932672119</v>
       </c>
       <c r="C25">
-        <v>45.5453067372979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>45.545306737297899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26">
-        <v>770.7863268662109</v>
+        <v>770.78632686621086</v>
       </c>
       <c r="C26">
         <v>15.91739415402569</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27">
-        <v>343.0743327846679</v>
+        <v>343.07433278466789</v>
       </c>
       <c r="C27">
-        <v>7.084777179773202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>7.0847771797732024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28">
-        <v>334.2842372786865</v>
+        <v>334.28423727868648</v>
       </c>
       <c r="C28">
-        <v>6.903254220759268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>6.9032542207592682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29">
-        <v>252.9753654161377</v>
+        <v>252.97536541613769</v>
       </c>
       <c r="C29">
-        <v>5.224156763339004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>5.2241567633390043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30">
-        <v>194.9264082695312</v>
+        <v>194.92640826953121</v>
       </c>
       <c r="C30">
-        <v>4.025396356042543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>4.0253963560425428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -757,10 +795,10 @@
         <v>159.7930660522461</v>
       </c>
       <c r="C31">
-        <v>3.299862915024632</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>3.2998629150246321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -768,21 +806,21 @@
         <v>141.751621689209</v>
       </c>
       <c r="C32">
-        <v>2.927291722432327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>2.9272917224323272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33">
-        <v>138.2641350635986</v>
+        <v>138.26413506359859</v>
       </c>
       <c r="C33">
-        <v>2.855272153205629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>2.8552721532056289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -793,40 +831,40 @@
         <v>1.558796419138184</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
       <c r="B35">
-        <v>75.04122603283692</v>
+        <v>75.041226032836917</v>
       </c>
       <c r="C35">
-        <v>1.549665232675213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>1.5496652326752129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
-        <v>37.56866947131348</v>
+        <v>37.568669471313477</v>
       </c>
       <c r="C36">
-        <v>0.7758250230624624</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.77582502306246237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37">
-        <v>34.4987749038086</v>
+        <v>34.498774903808602</v>
       </c>
       <c r="C37">
-        <v>0.712429085512627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.71242908551262696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -837,18 +875,18 @@
         <v>0.5701242922144717</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
       <c r="B39">
-        <v>19.93627513183594</v>
+        <v>19.936275131835941</v>
       </c>
       <c r="C39">
-        <v>0.4117010618581126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.41170106185811262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -856,10 +894,10 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C40">
-        <v>0.3993520106852527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.39935201068525272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -867,23 +905,23 @@
         <v>11.59248422521973</v>
       </c>
       <c r="C41">
-        <v>0.2393946729534759</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.23939467295347591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42">
-        <v>4842.415281092163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>4842.4152810921632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -891,23 +929,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
       <c r="B46">
-        <v>7.93873034375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>7.9387303437499996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47">
-        <v>5.77892571875</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>5.7789257187500001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -915,28 +953,28 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
       <c r="B49">
-        <v>0.2824810654903022</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.28248106549030222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
       <c r="B50">
-        <v>4856.132937154664</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>4856.1329371546644</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -947,18 +985,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57">
-        <v>2205.492893267212</v>
+        <v>2205.4928932672119</v>
       </c>
       <c r="C57">
-        <v>45.09442310353469</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>45.094423103534687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -966,54 +1004,54 @@
         <v>775.8667143282471</v>
       </c>
       <c r="C58">
-        <v>15.86369287095603</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>15.863692870956029</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59">
-        <v>345.0908260473633</v>
+        <v>345.09082604736329</v>
       </c>
       <c r="C59">
-        <v>7.055870262123162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>7.0558702621231619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60">
-        <v>334.2842372786865</v>
+        <v>334.28423727868648</v>
       </c>
       <c r="C60">
-        <v>6.834914262796088</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>6.8349142627960884</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
       <c r="B61">
-        <v>252.9807586503906</v>
+        <v>252.98075865039061</v>
       </c>
       <c r="C61">
-        <v>5.172549593090774</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>5.1725495930907739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
       <c r="B62">
-        <v>194.9264082695312</v>
+        <v>194.92640826953121</v>
       </c>
       <c r="C62">
         <v>3.985546249272633</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1021,10 +1059,10 @@
         <v>159.7930660522461</v>
       </c>
       <c r="C63">
-        <v>3.267195351918106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>3.2671953519181058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1032,32 +1070,32 @@
         <v>141.751621689209</v>
       </c>
       <c r="C64">
-        <v>2.898312492222986</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>2.8983124922229861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65">
-        <v>138.2641350635986</v>
+        <v>138.26413506359859</v>
       </c>
       <c r="C65">
         <v>2.82700589316602</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>22</v>
       </c>
       <c r="B66">
-        <v>93.49282241210938</v>
+        <v>93.492822412109376</v>
       </c>
       <c r="C66">
         <v>1.911593051995607</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -1065,65 +1103,65 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C67">
-        <v>1.543364844644416</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>1.5433648446444159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>23</v>
       </c>
       <c r="B68">
-        <v>37.56866947131348</v>
+        <v>37.568669471313477</v>
       </c>
       <c r="C68">
-        <v>0.7681446091928077</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.76814460919280769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>10</v>
       </c>
       <c r="B69">
-        <v>34.4987749038086</v>
+        <v>34.498774903808602</v>
       </c>
       <c r="C69">
-        <v>0.7053762706808526</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.70537627068085262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>24</v>
       </c>
       <c r="B70">
-        <v>31.79497667736817</v>
+        <v>31.794976677368169</v>
       </c>
       <c r="C70">
-        <v>0.65009328990957</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.65009328990957005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>27</v>
       </c>
       <c r="B71">
-        <v>29.30355755432129</v>
+        <v>29.303557554321291</v>
       </c>
       <c r="C71">
-        <v>0.5991527004359491</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.59915270043594915</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>25</v>
       </c>
       <c r="B72">
-        <v>19.93627513183594</v>
+        <v>19.936275131835941</v>
       </c>
       <c r="C72">
-        <v>0.40762535605893</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.40762535605893002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -1131,34 +1169,34 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C73">
-        <v>0.3953985564519332</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.39539855645193323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>30</v>
       </c>
       <c r="B74">
-        <v>0.9655111418457031</v>
+        <v>0.96551114184570308</v>
       </c>
       <c r="C74">
-        <v>0.01974124154944259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>1.9741241549442588E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>11</v>
       </c>
       <c r="B75">
-        <v>4890.832926731324</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>4890.8329267313238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -1166,23 +1204,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>28</v>
       </c>
       <c r="B79">
-        <v>7.93873034375</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>7.9387303437499996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="B80">
-        <v>5.77892571875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>5.7789257187500001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -1190,28 +1228,28 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
       <c r="B82">
-        <v>0.2796924168877852</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.27969241688778518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>16</v>
       </c>
       <c r="B83">
-        <v>4904.550582793824</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>4904.5505827938241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -1222,84 +1260,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90">
-        <v>2205.492893267212</v>
+        <v>2205.4928932672119</v>
       </c>
       <c r="C90">
-        <v>38.43499739367851</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>38.434997393678508</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91">
-        <v>843.3553795355224</v>
+        <v>843.35537953552239</v>
       </c>
       <c r="C91">
         <v>14.6971055374266</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92">
-        <v>367.9421139595947</v>
+        <v>367.94211395959468</v>
       </c>
       <c r="C92">
-        <v>6.412105989655617</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>6.4121059896556174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93">
-        <v>334.2842372786865</v>
+        <v>334.28423727868648</v>
       </c>
       <c r="C93">
-        <v>5.825552114802244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>5.8255521148022442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>18</v>
       </c>
       <c r="B94">
-        <v>274.2421256580811</v>
+        <v>274.24212565808108</v>
       </c>
       <c r="C94">
-        <v>4.779201700029302</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>4.7792017000293017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>22</v>
       </c>
       <c r="B95">
-        <v>200.6734408065186</v>
+        <v>200.67344080651861</v>
       </c>
       <c r="C95">
-        <v>3.497124474045888</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>3.4971244740458882</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96">
-        <v>194.9264082695312</v>
+        <v>194.92640826953121</v>
       </c>
       <c r="C96">
-        <v>3.396971269628495</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>3.3969712696284948</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -1307,32 +1345,32 @@
         <v>159.7930660522461</v>
       </c>
       <c r="C97">
-        <v>2.784704542007277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>2.7847045420072769</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>32</v>
       </c>
       <c r="B98">
-        <v>150.2866781329346</v>
+        <v>150.28667813293461</v>
       </c>
       <c r="C98">
-        <v>2.619037268257524</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>2.6190372682575238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>24</v>
       </c>
       <c r="B99">
-        <v>148.0042300758057</v>
+        <v>148.00423007580571</v>
       </c>
       <c r="C99">
         <v>2.579261177663553</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -1340,21 +1378,21 @@
         <v>141.751621689209</v>
       </c>
       <c r="C100">
-        <v>2.470297332086827</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>2.4702973320868269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101">
-        <v>138.2641350635986</v>
+        <v>138.26413506359859</v>
       </c>
       <c r="C101">
-        <v>2.409521103890846</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>2.4095211038908459</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -1362,21 +1400,21 @@
         <v>126.1589558033447</v>
       </c>
       <c r="C102">
-        <v>2.198564843393161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>2.1985648433931608</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>30</v>
       </c>
       <c r="B103">
-        <v>87.94605653625489</v>
+        <v>87.946056536254886</v>
       </c>
       <c r="C103">
-        <v>1.532630852755925</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>1.5326308527559249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -1387,84 +1425,84 @@
         <v>1.315444786713625</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>33</v>
       </c>
       <c r="B105">
-        <v>50.61365254760742</v>
+        <v>50.613652547607423</v>
       </c>
       <c r="C105">
-        <v>0.8820412025313875</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>0.88204120253138751</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>34</v>
       </c>
       <c r="B106">
-        <v>44.4032724407959</v>
+        <v>44.403272440795902</v>
       </c>
       <c r="C106">
-        <v>0.7738132667498989</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>0.77381326674989892</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>23</v>
       </c>
       <c r="B107">
-        <v>37.56866947131348</v>
+        <v>37.568669471313477</v>
       </c>
       <c r="C107">
-        <v>0.6547070351584023</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>0.65470703515840234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>35</v>
       </c>
       <c r="B108">
-        <v>35.61361398901367</v>
+        <v>35.613613989013672</v>
       </c>
       <c r="C108">
-        <v>0.6206363960753745</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>0.62063639607537446</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>10</v>
       </c>
       <c r="B109">
-        <v>34.4987749038086</v>
+        <v>34.498774903808602</v>
       </c>
       <c r="C109">
-        <v>0.6012081596638976</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>0.60120815966389762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>36</v>
       </c>
       <c r="B110">
-        <v>31.68114633801269</v>
+        <v>31.681146338012692</v>
       </c>
       <c r="C110">
-        <v>0.5521055092253866</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>0.55210550922538659</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>25</v>
       </c>
       <c r="B111">
-        <v>19.93627513183594</v>
+        <v>19.936275131835941</v>
       </c>
       <c r="C111">
-        <v>0.3474283163962729</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>0.34742831639627292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -1472,10 +1510,10 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C112">
-        <v>0.3370071383727954</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>0.33700713837279539</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -1483,23 +1521,23 @@
         <v>15.98287209533691</v>
       </c>
       <c r="C113">
-        <v>0.2785325897911856</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>0.27853258979118561</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>11</v>
       </c>
       <c r="B114">
-        <v>5738.241297838501</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>5738.2412978385009</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -1507,23 +1545,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>28</v>
       </c>
       <c r="B118">
-        <v>7.93873034375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>7.9387303437499996</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>13</v>
       </c>
       <c r="B119">
-        <v>5.77892571875</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>5.7789257187500001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1531,28 +1569,28 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
       <c r="B121">
-        <v>0.2384866820580601</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>0.23848668205806009</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>16</v>
       </c>
       <c r="B122">
-        <v>5751.958953901001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>5751.9589539010012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -1563,102 +1601,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>32</v>
       </c>
       <c r="B129">
-        <v>87.56141703198242</v>
+        <v>87.561417031982415</v>
       </c>
       <c r="C129">
-        <v>46.23709038708044</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>46.237090387080443</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>37</v>
       </c>
       <c r="B130">
-        <v>38.80493767272949</v>
+        <v>38.804937672729487</v>
       </c>
       <c r="C130">
         <v>20.49107325414414</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>33</v>
       </c>
       <c r="B131">
-        <v>31.69970783386231</v>
+        <v>31.699707833862309</v>
       </c>
       <c r="C131">
         <v>16.73913358235141</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>36</v>
       </c>
       <c r="B132">
-        <v>17.4074130567627</v>
+        <v>17.407413056762699</v>
       </c>
       <c r="C132">
-        <v>9.192040949003799</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>9.1920409490037986</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>34</v>
       </c>
       <c r="B133">
-        <v>13.22443829174805</v>
+        <v>13.224438291748051</v>
       </c>
       <c r="C133">
-        <v>6.983207551227527</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>6.9832075512275269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
       <c r="B134">
-        <v>0.6481496619873047</v>
+        <v>0.64814966198730473</v>
       </c>
       <c r="C134">
-        <v>0.342257532158444</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>0.34225753215844401</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>39</v>
       </c>
       <c r="B135">
-        <v>0.02877881005859375</v>
+        <v>2.877881005859375E-2</v>
       </c>
       <c r="C135">
-        <v>0.01519674403425644</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>1.519674403425644E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>11</v>
       </c>
       <c r="B136">
-        <v>189.3748423591308</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>189.37484235913081</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -1669,73 +1707,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>4</v>
       </c>
       <c r="B145">
-        <v>2205.492893267212</v>
+        <v>2205.4928932672119</v>
       </c>
       <c r="C145">
         <v>47.08445428732994</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>8</v>
       </c>
       <c r="B146">
-        <v>770.621159359497</v>
+        <v>770.62115935949703</v>
       </c>
       <c r="C146">
         <v>16.45177677129578</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147">
-        <v>334.2842372786865</v>
+        <v>334.28423727868648</v>
       </c>
       <c r="C147">
-        <v>7.136541195472492</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>7.1365411954724918</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>6</v>
       </c>
       <c r="B148">
-        <v>300.005987055664</v>
+        <v>300.00598705566398</v>
       </c>
       <c r="C148">
-        <v>6.404744366472229</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>6.4047443664722286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>19</v>
       </c>
       <c r="B149">
-        <v>194.9264082695312</v>
+        <v>194.92640826953121</v>
       </c>
       <c r="C149">
-        <v>4.161429668432929</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>4.1614296684329286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>18</v>
       </c>
       <c r="B150">
-        <v>187.9975108371582</v>
+        <v>187.99751083715819</v>
       </c>
       <c r="C150">
-        <v>4.01350656452627</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>4.0135065645262697</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -1743,10 +1781,10 @@
         <v>159.7930660522461</v>
       </c>
       <c r="C151">
-        <v>3.411377718303858</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>3.4113777183038581</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -1754,21 +1792,21 @@
         <v>141.751621689209</v>
       </c>
       <c r="C152">
-        <v>3.026215941096577</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>3.0262159410965772</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>9</v>
       </c>
       <c r="B153">
-        <v>138.2641350635986</v>
+        <v>138.26413506359859</v>
       </c>
       <c r="C153">
-        <v>2.951762559223299</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>2.9517625592232992</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -1776,54 +1814,54 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C154">
-        <v>1.611474024392963</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>1.6114740243929631</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>22</v>
       </c>
       <c r="B155">
-        <v>62.93480467712402</v>
+        <v>62.934804677124021</v>
       </c>
       <c r="C155">
         <v>1.343577638789093</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>23</v>
       </c>
       <c r="B156">
-        <v>37.56866947131348</v>
+        <v>37.568669471313477</v>
       </c>
       <c r="C156">
-        <v>0.8020430742524056</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>0.80204307425240562</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>10</v>
       </c>
       <c r="B157">
-        <v>34.4987749038086</v>
+        <v>34.498774903808602</v>
       </c>
       <c r="C157">
-        <v>0.7365047490681071</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>0.73650474906810715</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>25</v>
       </c>
       <c r="B158">
-        <v>19.93627513183594</v>
+        <v>19.936275131835941</v>
       </c>
       <c r="C158">
-        <v>0.4256139922146795</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>0.42561399221467949</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -1831,10 +1869,10 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C159">
-        <v>0.4128476200658615</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>0.41284762006586151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -1842,34 +1880,34 @@
         <v>1.13378283203125</v>
       </c>
       <c r="C160">
-        <v>0.0242048143022817</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>2.4204814302281701E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>27</v>
       </c>
       <c r="B161">
-        <v>0.09017002404785156</v>
+        <v>9.0170024047851557E-2</v>
       </c>
       <c r="C161">
-        <v>0.00192501476124871</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>1.92501476124871E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>11</v>
       </c>
       <c r="B162">
-        <v>4684.121174705199</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>4684.1211747051993</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -1877,23 +1915,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>28</v>
       </c>
       <c r="B166">
-        <v>7.93873034375</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>7.9387303437499996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>13</v>
       </c>
       <c r="B167">
-        <v>5.77892571875</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>5.7789257187500001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -1901,28 +1939,28 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>15</v>
       </c>
       <c r="B169">
-        <v>0.2919992906665622</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>0.29199929066656222</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>16</v>
       </c>
       <c r="B170">
-        <v>4697.8388307677</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>4697.8388307676996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -1933,18 +1971,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
       <c r="B177">
-        <v>928.8530931767579</v>
+        <v>928.85309317675785</v>
       </c>
       <c r="C177">
-        <v>62.84852138084352</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>62.848521380843522</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -1952,10 +1990,10 @@
         <v>141.751621689209</v>
       </c>
       <c r="C178">
-        <v>9.591268944407942</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>9.5912689444079415</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -1963,76 +2001,76 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C179">
-        <v>5.10739519773981</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>5.1073951977398098</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
       <c r="B180">
-        <v>67.21340214550781</v>
+        <v>67.213402145507814</v>
       </c>
       <c r="C180">
-        <v>4.547826747687126</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>4.5478267476871261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>8</v>
       </c>
       <c r="B181">
-        <v>66.92860905639648</v>
+        <v>66.928609056396482</v>
       </c>
       <c r="C181">
-        <v>4.528556935612846</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>4.5285569356128459</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>9</v>
       </c>
       <c r="B182">
-        <v>56.27862349304199</v>
+        <v>56.278623493041991</v>
       </c>
       <c r="C182">
         <v>3.8079522993135</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>19</v>
       </c>
       <c r="B183">
-        <v>43.07216271484375</v>
+        <v>43.072162714843749</v>
       </c>
       <c r="C183">
         <v>2.914370161641795</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>23</v>
       </c>
       <c r="B184">
-        <v>37.56866947131348</v>
+        <v>37.568669471313477</v>
       </c>
       <c r="C184">
-        <v>2.541990056191127</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>2.5419900561911271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>25</v>
       </c>
       <c r="B185">
-        <v>19.93627513183594</v>
+        <v>19.936275131835941</v>
       </c>
       <c r="C185">
         <v>1.348938193866934</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -2043,40 +2081,40 @@
         <v>1.30847653775678</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>6</v>
       </c>
       <c r="B187">
-        <v>10.70263534814453</v>
+        <v>10.702635348144531</v>
       </c>
       <c r="C187">
-        <v>0.7241670523039654</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>0.72416705230396539</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
       <c r="B188">
-        <v>6.292378446044921</v>
+        <v>6.2923784460449212</v>
       </c>
       <c r="C188">
-        <v>0.4257580495857348</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>0.42575804958573482</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>22</v>
       </c>
       <c r="B189">
-        <v>4.504392360229493</v>
+        <v>4.5043923602294926</v>
       </c>
       <c r="C189">
-        <v>0.3047784430489263</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>0.30477844304892632</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -2084,12 +2122,12 @@
         <v>1477.923541825561</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
@@ -2097,15 +2135,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>28</v>
       </c>
       <c r="B194">
-        <v>7.93873034375</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>7.9387303437499996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -2113,7 +2151,7 @@
         <v>4.402269640380859</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -2121,15 +2159,15 @@
         <v>12.34099998413086</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>15</v>
       </c>
       <c r="B197">
-        <v>0.8281080061896027</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>0.82810800618960267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -2137,12 +2175,12 @@
         <v>1490.264541809692</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -2153,106 +2191,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>4</v>
       </c>
       <c r="B205">
-        <v>1276.512787082398</v>
+        <v>1276.5127870823981</v>
       </c>
       <c r="C205">
-        <v>49.69967709686308</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>49.699677096863077</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>8</v>
       </c>
       <c r="B206">
-        <v>461.7733658826904</v>
+        <v>461.77336588269043</v>
       </c>
       <c r="C206">
-        <v>17.97865827004828</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>17.978658270048282</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>5</v>
       </c>
       <c r="B207">
-        <v>327.9918588326416</v>
+        <v>327.99185883264158</v>
       </c>
       <c r="C207">
         <v>12.77001659469469</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>6</v>
       </c>
       <c r="B208">
-        <v>230.5235426531982</v>
+        <v>230.52354265319821</v>
       </c>
       <c r="C208">
-        <v>8.975190651458284</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>8.9751906514582842</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
       <c r="B209">
-        <v>92.5796639066162</v>
+        <v>92.579663906616204</v>
       </c>
       <c r="C209">
-        <v>3.604491430447326</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>3.6044914304473261</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>9</v>
       </c>
       <c r="B210">
-        <v>81.98551157080078</v>
+        <v>81.985511570800782</v>
       </c>
       <c r="C210">
         <v>3.192019298923729</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>19</v>
       </c>
       <c r="B211">
-        <v>48.16365015686035</v>
+        <v>48.163650156860349</v>
       </c>
       <c r="C211">
-        <v>1.875200847829601</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>1.8752008478296009</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>10</v>
       </c>
       <c r="B212">
-        <v>34.4987749038086</v>
+        <v>34.498774903808602</v>
       </c>
       <c r="C212">
-        <v>1.34317336285796</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>1.3431733628579601</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>22</v>
       </c>
       <c r="B213">
-        <v>14.4237236776123</v>
+        <v>14.423723677612299</v>
       </c>
       <c r="C213">
-        <v>0.5615724468770539</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>0.56157244687705388</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -2260,12 +2298,12 @@
         <v>2568.452878666626</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
@@ -2273,7 +2311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2319,7 @@
         <v>1.376656078491211</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -2289,28 +2327,28 @@
         <v>1.376656078491211</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>15</v>
       </c>
       <c r="B220">
-        <v>0.05356993761174714</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>5.3569937611747137E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>16</v>
       </c>
       <c r="B221">
-        <v>2569.829534745117</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>2569.8295347451171</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -2321,18 +2359,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>4</v>
       </c>
       <c r="B228">
-        <v>774.1505203955078</v>
+        <v>774.15052039550778</v>
       </c>
       <c r="C228">
-        <v>65.06314919332337</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>65.063149193323369</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -2340,10 +2378,10 @@
         <v>141.751621689209</v>
       </c>
       <c r="C229">
-        <v>11.91345438306839</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>11.913454383068389</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -2351,87 +2389,87 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C230">
-        <v>6.343969714252632</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>6.3439697142526317</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
       <c r="B231">
-        <v>67.21340214550781</v>
+        <v>67.213402145507814</v>
       </c>
       <c r="C231">
         <v>5.64892161972561</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>9</v>
       </c>
       <c r="B232">
-        <v>56.27862349304199</v>
+        <v>56.278623493041991</v>
       </c>
       <c r="C232">
-        <v>4.729912827355522</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>4.7299128273555224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>23</v>
       </c>
       <c r="B233">
-        <v>37.56866947131348</v>
+        <v>37.568669471313477</v>
       </c>
       <c r="C233">
-        <v>3.157442748417877</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>3.1574427484178771</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>25</v>
       </c>
       <c r="B234">
-        <v>19.93627513183594</v>
+        <v>19.936275131835941</v>
       </c>
       <c r="C234">
         <v>1.675535711839472</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>6</v>
       </c>
       <c r="B235">
-        <v>10.70263534814453</v>
+        <v>10.702635348144531</v>
       </c>
       <c r="C235">
-        <v>0.8994984077028139</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>0.89949840770281386</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>5</v>
       </c>
       <c r="B236">
-        <v>6.292378446044921</v>
+        <v>6.2923784460449212</v>
       </c>
       <c r="C236">
         <v>0.5288402537102378</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>26</v>
       </c>
       <c r="B237">
-        <v>0.4673132320556641</v>
+        <v>0.46731323205566411</v>
       </c>
       <c r="C237">
-        <v>0.03927514060407554</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>3.927514060407554E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -2439,12 +2477,12 @@
         <v>1189.844835354126</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -2452,15 +2490,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>28</v>
       </c>
       <c r="B242">
-        <v>7.93873034375</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>7.9387303437499996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -2468,7 +2506,7 @@
         <v>4.402269640380859</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -2476,15 +2514,15 @@
         <v>12.34099998413086</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>15</v>
       </c>
       <c r="B245">
-        <v>1.026546780153876</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>1.0265467801538759</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>16</v>
       </c>
@@ -2492,12 +2530,12 @@
         <v>1202.185835338257</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -2508,73 +2546,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>4</v>
       </c>
       <c r="B253">
-        <v>2205.492893267212</v>
+        <v>2205.4928932672119</v>
       </c>
       <c r="C253">
-        <v>44.75509342262774</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>44.755093422627738</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>8</v>
       </c>
       <c r="B254">
-        <v>775.9979078244629</v>
+        <v>775.99790782446291</v>
       </c>
       <c r="C254">
         <v>15.74698289278945</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>6</v>
       </c>
       <c r="B255">
-        <v>350.3376363325195</v>
+        <v>350.33763633251948</v>
       </c>
       <c r="C255">
-        <v>7.109246958532284</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>7.1092469585322844</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>5</v>
       </c>
       <c r="B256">
-        <v>334.2842372786865</v>
+        <v>334.28423727868648</v>
       </c>
       <c r="C256">
-        <v>6.783482420093587</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>6.7834824200935868</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>18</v>
       </c>
       <c r="B257">
-        <v>252.9807586503906</v>
+        <v>252.98075865039061</v>
       </c>
       <c r="C257">
-        <v>5.133626828764261</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>5.1336268287642612</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>19</v>
       </c>
       <c r="B258">
-        <v>194.9264082695312</v>
+        <v>194.92640826953121</v>
       </c>
       <c r="C258">
-        <v>3.955555531043451</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>3.9555555310434509</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -2585,7 +2623,7 @@
         <v>3.242610130954493</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -2593,21 +2631,21 @@
         <v>141.751621689209</v>
       </c>
       <c r="C260">
-        <v>2.87650306690011</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>2.8765030669001099</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>9</v>
       </c>
       <c r="B261">
-        <v>138.2641350635986</v>
+        <v>138.26413506359859</v>
       </c>
       <c r="C261">
         <v>2.80573304074594</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>22</v>
       </c>
@@ -2615,10 +2653,10 @@
         <v>101.176059114624</v>
       </c>
       <c r="C262">
-        <v>2.053121092174694</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>2.0531210921746941</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -2626,10 +2664,10 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C263">
-        <v>1.531751224506649</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>1.5317512245066489</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -2637,32 +2675,32 @@
         <v>43.00522204333496</v>
       </c>
       <c r="C264">
-        <v>0.8726859814810174</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>0.87268598148101739</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>23</v>
       </c>
       <c r="B265">
-        <v>37.56866947131348</v>
+        <v>37.568669471313477</v>
       </c>
       <c r="C265">
-        <v>0.7623644207085387</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>0.76236442070853871</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>10</v>
       </c>
       <c r="B266">
-        <v>34.4987749038086</v>
+        <v>34.498774903808602</v>
       </c>
       <c r="C266">
-        <v>0.7000684057969859</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>0.70006840579698593</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -2670,21 +2708,21 @@
         <v>32.28008708642578</v>
       </c>
       <c r="C267">
-        <v>0.6550455536056488</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>0.65504555360564876</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>25</v>
       </c>
       <c r="B268">
-        <v>19.93627513183594</v>
+        <v>19.936275131835941</v>
       </c>
       <c r="C268">
-        <v>0.4045580281615647</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>0.40455802816156472</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>26</v>
       </c>
@@ -2692,34 +2730,34 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C269">
-        <v>0.3924232336346558</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>0.39242323363465581</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>30</v>
       </c>
       <c r="B270">
-        <v>10.79941536901855</v>
+        <v>10.799415369018551</v>
       </c>
       <c r="C270">
-        <v>0.2191477674789443</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>0.21914776747894429</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>11</v>
       </c>
       <c r="B271">
-        <v>4927.914846340454</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>4927.9148463404536</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>1</v>
       </c>
@@ -2727,23 +2765,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>28</v>
       </c>
       <c r="B275">
-        <v>7.93873034375</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>7.9387303437499996</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>13</v>
       </c>
       <c r="B276">
-        <v>5.77892571875</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>5.7789257187500001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -2751,7 +2789,7 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>15</v>
       </c>
@@ -2759,20 +2797,20 @@
         <v>0.277593610124378</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>16</v>
       </c>
       <c r="B279">
-        <v>4941.632502402954</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>4941.6325024029538</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>1</v>
       </c>
@@ -2783,73 +2821,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>4</v>
       </c>
       <c r="B286">
-        <v>2205.492893267212</v>
+        <v>2205.4928932672119</v>
       </c>
       <c r="C286">
-        <v>35.75563682735441</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>35.755636827354408</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>8</v>
       </c>
       <c r="B287">
-        <v>864.6732362969971</v>
+        <v>864.67323629699706</v>
       </c>
       <c r="C287">
         <v>14.01815544532014</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>6</v>
       </c>
       <c r="B288">
-        <v>367.9421139595947</v>
+        <v>367.94211395959468</v>
       </c>
       <c r="C288">
-        <v>5.965108588828434</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>5.9651085888284339</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>5</v>
       </c>
       <c r="B289">
-        <v>334.2842372786865</v>
+        <v>334.28423727868648</v>
       </c>
       <c r="C289">
-        <v>5.419444252907753</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>5.4194442529077529</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>32</v>
       </c>
       <c r="B290">
-        <v>278.4701022282715</v>
+        <v>278.47010222827151</v>
       </c>
       <c r="C290">
-        <v>4.51458078733604</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>4.5145807873360404</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>18</v>
       </c>
       <c r="B291">
-        <v>274.2421256580811</v>
+        <v>274.24212565808108</v>
       </c>
       <c r="C291">
-        <v>4.446036474534224</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>4.4460364745342238</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>22</v>
       </c>
@@ -2857,21 +2895,21 @@
         <v>202.1758645983887</v>
       </c>
       <c r="C292">
-        <v>3.27769217117152</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>3.2776921711715201</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>19</v>
       </c>
       <c r="B293">
-        <v>194.9264082695312</v>
+        <v>194.92640826953121</v>
       </c>
       <c r="C293">
         <v>3.160163373648893</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -2882,18 +2920,18 @@
         <v>2.590578665991345</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>24</v>
       </c>
       <c r="B295">
-        <v>148.0042300758057</v>
+        <v>148.00423007580571</v>
       </c>
       <c r="C295">
-        <v>2.399457062708181</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>2.3994570627081808</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -2901,32 +2939,32 @@
         <v>141.751621689209</v>
       </c>
       <c r="C296">
-        <v>2.298089248113399</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>2.2980892481133992</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>9</v>
       </c>
       <c r="B297">
-        <v>138.2641350635986</v>
+        <v>138.26413506359859</v>
       </c>
       <c r="C297">
-        <v>2.241549820756254</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>2.2415498207562541</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>33</v>
       </c>
       <c r="B298">
-        <v>130.6343704691162</v>
+        <v>130.63437046911619</v>
       </c>
       <c r="C298">
         <v>2.117855433550869</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -2937,7 +2975,7 @@
         <v>2.045299633471148</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>34</v>
       </c>
@@ -2945,21 +2983,21 @@
         <v>123.7092399351807</v>
       </c>
       <c r="C300">
-        <v>2.00558463317363</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
+        <v>2.0055846331736298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>30</v>
       </c>
       <c r="B301">
-        <v>87.94605653625489</v>
+        <v>87.946056536254886</v>
       </c>
       <c r="C301">
-        <v>1.425788887149826</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
+        <v>1.4257888871498261</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>35</v>
       </c>
@@ -2970,7 +3008,7 @@
         <v>1.243928169977887</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>21</v>
       </c>
@@ -2981,62 +3019,62 @@
         <v>1.223743183287036</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>37</v>
       </c>
       <c r="B304">
-        <v>61.18145023706055</v>
+        <v>61.181450237060552</v>
       </c>
       <c r="C304">
-        <v>0.9918788321310412</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>0.99187883213104122</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>36</v>
       </c>
       <c r="B305">
-        <v>58.44556427734375</v>
+        <v>58.445564277343749</v>
       </c>
       <c r="C305">
-        <v>0.9475244181697354</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>0.94752441816973543</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>23</v>
       </c>
       <c r="B306">
-        <v>37.56866947131348</v>
+        <v>37.568669471313477</v>
       </c>
       <c r="C306">
-        <v>0.609066438528964</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>0.60906643852896403</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>10</v>
       </c>
       <c r="B307">
-        <v>34.4987749038086</v>
+        <v>34.498774903808602</v>
       </c>
       <c r="C307">
-        <v>0.5592970488433028</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>0.55929704884330278</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>25</v>
       </c>
       <c r="B308">
-        <v>19.93627513183594</v>
+        <v>19.936275131835941</v>
       </c>
       <c r="C308">
-        <v>0.3232085741378891</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>0.32320857413788912</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>26</v>
       </c>
@@ -3044,45 +3082,45 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C309">
-        <v>0.3135138718616258</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>0.31351387186162583</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>47</v>
       </c>
       <c r="B310">
-        <v>6.560019688354492</v>
+        <v>6.5600196883544921</v>
       </c>
       <c r="C310">
-        <v>0.1063515925501917</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>0.10635159255019171</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>39</v>
       </c>
       <c r="B311">
-        <v>0.02877881005859375</v>
+        <v>2.877881005859375E-2</v>
       </c>
       <c r="C311">
-        <v>0.0004665644962719091</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>4.6656449627190908E-4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>11</v>
       </c>
       <c r="B312">
-        <v>6168.238322579467</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>6168.2383225794674</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>1</v>
       </c>
@@ -3090,23 +3128,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>28</v>
       </c>
       <c r="B316">
-        <v>7.93873034375</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>7.9387303437499996</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>13</v>
       </c>
       <c r="B317">
-        <v>5.77892571875</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>5.7789257187500001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -3114,23 +3152,24 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>15</v>
       </c>
       <c r="B319">
-        <v>0.2218983135741036</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>0.22189831357410361</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>16</v>
       </c>
       <c r="B320">
-        <v>6181.955978641968</v>
+        <v>6181.9559786419677</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Mataquito/Geology/combined_subwatershed_summary.xlsx
+++ b/Mataquito/Geology/combined_subwatershed_summary.xlsx
@@ -1,41 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Glong1/Desktop/Andes/AndesTG/Mataquito/Geology/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83642DD9-0678-D746-B989-9ED930DA918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Geologic Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Geologic Summary'!$A$286:$A$311</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Geologic Summary'!$C$286:$C$311</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -189,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,21 +227,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +271,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -339,7 +305,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -374,10 +339,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,21 +514,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="I290" sqref="I290"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -575,18 +537,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>635.20438264819336</v>
+        <v>635.2043826481934</v>
       </c>
       <c r="C4">
-        <v>46.018625125228091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46.01862512522809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -594,65 +556,65 @@
         <v>292.2234795234375</v>
       </c>
       <c r="C5">
-        <v>21.170702098928729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21.17070209892873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>203.48141515612789</v>
+        <v>203.4814151561279</v>
       </c>
       <c r="C6">
-        <v>14.741609503672059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.74160950367206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>92.579663906616204</v>
+        <v>92.5796639066162</v>
       </c>
       <c r="C7">
-        <v>6.7071150072618257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.707115007261826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>82.445201328124995</v>
+        <v>82.44520132812499</v>
       </c>
       <c r="C8">
-        <v>5.9729040241749223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.972904024174922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>39.887291839477541</v>
+        <v>39.88729183947754</v>
       </c>
       <c r="C9">
-        <v>2.8897129499783478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.889712949978348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>34.498774903808602</v>
+        <v>34.4987749038086</v>
       </c>
       <c r="C10">
-        <v>2.4993312907560279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.499331290756028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -660,12 +622,12 @@
         <v>1380.320209305786</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -681,7 +643,7 @@
         <v>1.376656078491211</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -689,28 +651,28 @@
         <v>1.376656078491211</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.9635174181880753E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.09963517418188075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1381.6968653842771</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1381.696865384277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,73 +683,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25">
-        <v>2205.4928932672119</v>
+        <v>2205.492893267212</v>
       </c>
       <c r="C25">
-        <v>45.545306737297899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45.5453067372979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26">
-        <v>770.78632686621086</v>
+        <v>770.7863268662109</v>
       </c>
       <c r="C26">
         <v>15.91739415402569</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27">
-        <v>343.07433278466789</v>
+        <v>343.0743327846679</v>
       </c>
       <c r="C27">
-        <v>7.0847771797732024</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.084777179773202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28">
-        <v>334.28423727868648</v>
+        <v>334.2842372786865</v>
       </c>
       <c r="C28">
-        <v>6.9032542207592682</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.903254220759268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29">
-        <v>252.97536541613769</v>
+        <v>252.9753654161377</v>
       </c>
       <c r="C29">
-        <v>5.2241567633390043</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.224156763339004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30">
-        <v>194.92640826953121</v>
+        <v>194.9264082695312</v>
       </c>
       <c r="C30">
-        <v>4.0253963560425428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.025396356042543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -795,10 +757,10 @@
         <v>159.7930660522461</v>
       </c>
       <c r="C31">
-        <v>3.2998629150246321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.299862915024632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -806,21 +768,21 @@
         <v>141.751621689209</v>
       </c>
       <c r="C32">
-        <v>2.9272917224323272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.927291722432327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33">
-        <v>138.26413506359859</v>
+        <v>138.2641350635986</v>
       </c>
       <c r="C33">
-        <v>2.8552721532056289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.855272153205629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -831,40 +793,40 @@
         <v>1.558796419138184</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
       <c r="B35">
-        <v>75.041226032836917</v>
+        <v>75.04122603283692</v>
       </c>
       <c r="C35">
-        <v>1.5496652326752129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.549665232675213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="B36">
-        <v>37.568669471313477</v>
+        <v>37.56866947131348</v>
       </c>
       <c r="C36">
-        <v>0.77582502306246237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7758250230624624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
       <c r="B37">
-        <v>34.498774903808602</v>
+        <v>34.4987749038086</v>
       </c>
       <c r="C37">
-        <v>0.71242908551262696</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.712429085512627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -875,18 +837,18 @@
         <v>0.5701242922144717</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
       <c r="B39">
-        <v>19.936275131835941</v>
+        <v>19.93627513183594</v>
       </c>
       <c r="C39">
-        <v>0.41170106185811262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.4117010618581126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -894,10 +856,10 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C40">
-        <v>0.39935201068525272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3993520106852527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -905,23 +867,23 @@
         <v>11.59248422521973</v>
       </c>
       <c r="C41">
-        <v>0.23939467295347591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2393946729534759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42">
-        <v>4842.4152810921632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4842.415281092163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -929,23 +891,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
       <c r="B46">
-        <v>7.9387303437499996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.93873034375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
       <c r="B47">
-        <v>5.7789257187500001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.77892571875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -953,28 +915,28 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>15</v>
       </c>
       <c r="B49">
-        <v>0.28248106549030222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2824810654903022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
       <c r="B50">
-        <v>4856.1329371546644</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4856.132937154664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -985,18 +947,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57">
-        <v>2205.4928932672119</v>
+        <v>2205.492893267212</v>
       </c>
       <c r="C57">
-        <v>45.094423103534687</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45.09442310353469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1004,54 +966,54 @@
         <v>775.8667143282471</v>
       </c>
       <c r="C58">
-        <v>15.863692870956029</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15.86369287095603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
       <c r="B59">
-        <v>345.09082604736329</v>
+        <v>345.0908260473633</v>
       </c>
       <c r="C59">
-        <v>7.0558702621231619</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.055870262123162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60">
-        <v>334.28423727868648</v>
+        <v>334.2842372786865</v>
       </c>
       <c r="C60">
-        <v>6.8349142627960884</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.834914262796088</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
       <c r="B61">
-        <v>252.98075865039061</v>
+        <v>252.9807586503906</v>
       </c>
       <c r="C61">
-        <v>5.1725495930907739</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.172549593090774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>19</v>
       </c>
       <c r="B62">
-        <v>194.92640826953121</v>
+        <v>194.9264082695312</v>
       </c>
       <c r="C62">
         <v>3.985546249272633</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1059,10 +1021,10 @@
         <v>159.7930660522461</v>
       </c>
       <c r="C63">
-        <v>3.2671953519181058</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.267195351918106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1070,32 +1032,32 @@
         <v>141.751621689209</v>
       </c>
       <c r="C64">
-        <v>2.8983124922229861</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.898312492222986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65">
-        <v>138.26413506359859</v>
+        <v>138.2641350635986</v>
       </c>
       <c r="C65">
         <v>2.82700589316602</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>22</v>
       </c>
       <c r="B66">
-        <v>93.492822412109376</v>
+        <v>93.49282241210938</v>
       </c>
       <c r="C66">
         <v>1.911593051995607</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -1103,65 +1065,65 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C67">
-        <v>1.5433648446444159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.543364844644416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>23</v>
       </c>
       <c r="B68">
-        <v>37.568669471313477</v>
+        <v>37.56866947131348</v>
       </c>
       <c r="C68">
-        <v>0.76814460919280769</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7681446091928077</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
       <c r="B69">
-        <v>34.498774903808602</v>
+        <v>34.4987749038086</v>
       </c>
       <c r="C69">
-        <v>0.70537627068085262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7053762706808526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
       <c r="B70">
-        <v>31.794976677368169</v>
+        <v>31.79497667736817</v>
       </c>
       <c r="C70">
-        <v>0.65009328990957005</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.65009328990957</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>27</v>
       </c>
       <c r="B71">
-        <v>29.303557554321291</v>
+        <v>29.30355755432129</v>
       </c>
       <c r="C71">
-        <v>0.59915270043594915</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5991527004359491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>25</v>
       </c>
       <c r="B72">
-        <v>19.936275131835941</v>
+        <v>19.93627513183594</v>
       </c>
       <c r="C72">
-        <v>0.40762535605893002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.40762535605893</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -1169,34 +1131,34 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C73">
-        <v>0.39539855645193323</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3953985564519332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>30</v>
       </c>
       <c r="B74">
-        <v>0.96551114184570308</v>
+        <v>0.9655111418457031</v>
       </c>
       <c r="C74">
-        <v>1.9741241549442588E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.01974124154944259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
       <c r="B75">
-        <v>4890.8329267313238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4890.832926731324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -1204,23 +1166,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>28</v>
       </c>
       <c r="B79">
-        <v>7.9387303437499996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.93873034375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>13</v>
       </c>
       <c r="B80">
-        <v>5.7789257187500001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.77892571875</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -1228,28 +1190,28 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
       <c r="B82">
-        <v>0.27969241688778518</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2796924168877852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
       <c r="B83">
-        <v>4904.5505827938241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4904.550582793824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -1260,84 +1222,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90">
-        <v>2205.4928932672119</v>
+        <v>2205.492893267212</v>
       </c>
       <c r="C90">
-        <v>38.434997393678508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38.43499739367851</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91">
-        <v>843.35537953552239</v>
+        <v>843.3553795355224</v>
       </c>
       <c r="C91">
         <v>14.6971055374266</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
       <c r="B92">
-        <v>367.94211395959468</v>
+        <v>367.9421139595947</v>
       </c>
       <c r="C92">
-        <v>6.4121059896556174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.412105989655617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93">
-        <v>334.28423727868648</v>
+        <v>334.2842372786865</v>
       </c>
       <c r="C93">
-        <v>5.8255521148022442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.825552114802244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
       <c r="B94">
-        <v>274.24212565808108</v>
+        <v>274.2421256580811</v>
       </c>
       <c r="C94">
-        <v>4.7792017000293017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.779201700029302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>22</v>
       </c>
       <c r="B95">
-        <v>200.67344080651861</v>
+        <v>200.6734408065186</v>
       </c>
       <c r="C95">
-        <v>3.4971244740458882</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.497124474045888</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96">
-        <v>194.92640826953121</v>
+        <v>194.9264082695312</v>
       </c>
       <c r="C96">
-        <v>3.3969712696284948</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.396971269628495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -1345,32 +1307,32 @@
         <v>159.7930660522461</v>
       </c>
       <c r="C97">
-        <v>2.7847045420072769</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.784704542007277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>32</v>
       </c>
       <c r="B98">
-        <v>150.28667813293461</v>
+        <v>150.2866781329346</v>
       </c>
       <c r="C98">
-        <v>2.6190372682575238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.619037268257524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>24</v>
       </c>
       <c r="B99">
-        <v>148.00423007580571</v>
+        <v>148.0042300758057</v>
       </c>
       <c r="C99">
         <v>2.579261177663553</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -1378,21 +1340,21 @@
         <v>141.751621689209</v>
       </c>
       <c r="C100">
-        <v>2.4702973320868269</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.470297332086827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101">
-        <v>138.26413506359859</v>
+        <v>138.2641350635986</v>
       </c>
       <c r="C101">
-        <v>2.4095211038908459</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.409521103890846</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -1400,21 +1362,21 @@
         <v>126.1589558033447</v>
       </c>
       <c r="C102">
-        <v>2.1985648433931608</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.198564843393161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>30</v>
       </c>
       <c r="B103">
-        <v>87.946056536254886</v>
+        <v>87.94605653625489</v>
       </c>
       <c r="C103">
-        <v>1.5326308527559249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.532630852755925</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -1425,84 +1387,84 @@
         <v>1.315444786713625</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>33</v>
       </c>
       <c r="B105">
-        <v>50.613652547607423</v>
+        <v>50.61365254760742</v>
       </c>
       <c r="C105">
-        <v>0.88204120253138751</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.8820412025313875</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>34</v>
       </c>
       <c r="B106">
-        <v>44.403272440795902</v>
+        <v>44.4032724407959</v>
       </c>
       <c r="C106">
-        <v>0.77381326674989892</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7738132667498989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>23</v>
       </c>
       <c r="B107">
-        <v>37.568669471313477</v>
+        <v>37.56866947131348</v>
       </c>
       <c r="C107">
-        <v>0.65470703515840234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.6547070351584023</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>35</v>
       </c>
       <c r="B108">
-        <v>35.613613989013672</v>
+        <v>35.61361398901367</v>
       </c>
       <c r="C108">
-        <v>0.62063639607537446</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.6206363960753745</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
       <c r="B109">
-        <v>34.498774903808602</v>
+        <v>34.4987749038086</v>
       </c>
       <c r="C109">
-        <v>0.60120815966389762</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.6012081596638976</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>36</v>
       </c>
       <c r="B110">
-        <v>31.681146338012692</v>
+        <v>31.68114633801269</v>
       </c>
       <c r="C110">
-        <v>0.55210550922538659</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5521055092253866</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>25</v>
       </c>
       <c r="B111">
-        <v>19.936275131835941</v>
+        <v>19.93627513183594</v>
       </c>
       <c r="C111">
-        <v>0.34742831639627292</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3474283163962729</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -1510,10 +1472,10 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C112">
-        <v>0.33700713837279539</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3370071383727954</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -1521,23 +1483,23 @@
         <v>15.98287209533691</v>
       </c>
       <c r="C113">
-        <v>0.27853258979118561</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2785325897911856</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
       <c r="B114">
-        <v>5738.2412978385009</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5738.241297838501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -1545,23 +1507,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>28</v>
       </c>
       <c r="B118">
-        <v>7.9387303437499996</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.93873034375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>13</v>
       </c>
       <c r="B119">
-        <v>5.7789257187500001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.77892571875</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1569,28 +1531,28 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>15</v>
       </c>
       <c r="B121">
-        <v>0.23848668205806009</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2384866820580601</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>16</v>
       </c>
       <c r="B122">
-        <v>5751.9589539010012</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5751.958953901001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -1601,102 +1563,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>32</v>
       </c>
       <c r="B129">
-        <v>87.561417031982415</v>
+        <v>87.56141703198242</v>
       </c>
       <c r="C129">
-        <v>46.237090387080443</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46.23709038708044</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>37</v>
       </c>
       <c r="B130">
-        <v>38.804937672729487</v>
+        <v>38.80493767272949</v>
       </c>
       <c r="C130">
         <v>20.49107325414414</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>33</v>
       </c>
       <c r="B131">
-        <v>31.699707833862309</v>
+        <v>31.69970783386231</v>
       </c>
       <c r="C131">
         <v>16.73913358235141</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>36</v>
       </c>
       <c r="B132">
-        <v>17.407413056762699</v>
+        <v>17.4074130567627</v>
       </c>
       <c r="C132">
-        <v>9.1920409490037986</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.192040949003799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>34</v>
       </c>
       <c r="B133">
-        <v>13.224438291748051</v>
+        <v>13.22443829174805</v>
       </c>
       <c r="C133">
-        <v>6.9832075512275269</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.983207551227527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>8</v>
       </c>
       <c r="B134">
-        <v>0.64814966198730473</v>
+        <v>0.6481496619873047</v>
       </c>
       <c r="C134">
-        <v>0.34225753215844401</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.342257532158444</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>39</v>
       </c>
       <c r="B135">
-        <v>2.877881005859375E-2</v>
+        <v>0.02877881005859375</v>
       </c>
       <c r="C135">
-        <v>1.519674403425644E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.01519674403425644</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
       <c r="B136">
-        <v>189.37484235913081</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+        <v>189.3748423591308</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -1707,73 +1669,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
       <c r="B145">
-        <v>2205.4928932672119</v>
+        <v>2205.492893267212</v>
       </c>
       <c r="C145">
         <v>47.08445428732994</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>8</v>
       </c>
       <c r="B146">
-        <v>770.62115935949703</v>
+        <v>770.621159359497</v>
       </c>
       <c r="C146">
         <v>16.45177677129578</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147">
-        <v>334.28423727868648</v>
+        <v>334.2842372786865</v>
       </c>
       <c r="C147">
-        <v>7.1365411954724918</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.136541195472492</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
       <c r="B148">
-        <v>300.00598705566398</v>
+        <v>300.005987055664</v>
       </c>
       <c r="C148">
-        <v>6.4047443664722286</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.404744366472229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>19</v>
       </c>
       <c r="B149">
-        <v>194.92640826953121</v>
+        <v>194.9264082695312</v>
       </c>
       <c r="C149">
-        <v>4.1614296684329286</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.161429668432929</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>18</v>
       </c>
       <c r="B150">
-        <v>187.99751083715819</v>
+        <v>187.9975108371582</v>
       </c>
       <c r="C150">
-        <v>4.0135065645262697</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.01350656452627</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -1781,10 +1743,10 @@
         <v>159.7930660522461</v>
       </c>
       <c r="C151">
-        <v>3.4113777183038581</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.411377718303858</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -1792,21 +1754,21 @@
         <v>141.751621689209</v>
       </c>
       <c r="C152">
-        <v>3.0262159410965772</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.026215941096577</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>9</v>
       </c>
       <c r="B153">
-        <v>138.26413506359859</v>
+        <v>138.2641350635986</v>
       </c>
       <c r="C153">
-        <v>2.9517625592232992</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.951762559223299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -1814,54 +1776,54 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C154">
-        <v>1.6114740243929631</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.611474024392963</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>22</v>
       </c>
       <c r="B155">
-        <v>62.934804677124021</v>
+        <v>62.93480467712402</v>
       </c>
       <c r="C155">
         <v>1.343577638789093</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>23</v>
       </c>
       <c r="B156">
-        <v>37.568669471313477</v>
+        <v>37.56866947131348</v>
       </c>
       <c r="C156">
-        <v>0.80204307425240562</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.8020430742524056</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>10</v>
       </c>
       <c r="B157">
-        <v>34.498774903808602</v>
+        <v>34.4987749038086</v>
       </c>
       <c r="C157">
-        <v>0.73650474906810715</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7365047490681071</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>25</v>
       </c>
       <c r="B158">
-        <v>19.936275131835941</v>
+        <v>19.93627513183594</v>
       </c>
       <c r="C158">
-        <v>0.42561399221467949</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.4256139922146795</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -1869,10 +1831,10 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C159">
-        <v>0.41284762006586151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.4128476200658615</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -1880,34 +1842,34 @@
         <v>1.13378283203125</v>
       </c>
       <c r="C160">
-        <v>2.4204814302281701E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0242048143022817</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>27</v>
       </c>
       <c r="B161">
-        <v>9.0170024047851557E-2</v>
+        <v>0.09017002404785156</v>
       </c>
       <c r="C161">
-        <v>1.92501476124871E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.00192501476124871</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>11</v>
       </c>
       <c r="B162">
-        <v>4684.1211747051993</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4684.121174705199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -1915,23 +1877,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>28</v>
       </c>
       <c r="B166">
-        <v>7.9387303437499996</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.93873034375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>13</v>
       </c>
       <c r="B167">
-        <v>5.7789257187500001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.77892571875</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -1939,28 +1901,28 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>15</v>
       </c>
       <c r="B169">
-        <v>0.29199929066656222</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2919992906665622</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>16</v>
       </c>
       <c r="B170">
-        <v>4697.8388307676996</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4697.8388307677</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -1971,18 +1933,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
       <c r="B177">
-        <v>928.85309317675785</v>
+        <v>928.8530931767579</v>
       </c>
       <c r="C177">
-        <v>62.848521380843522</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62.84852138084352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -1990,10 +1952,10 @@
         <v>141.751621689209</v>
       </c>
       <c r="C178">
-        <v>9.5912689444079415</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.591268944407942</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -2001,76 +1963,76 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C179">
-        <v>5.1073951977398098</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.10739519773981</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>7</v>
       </c>
       <c r="B180">
-        <v>67.213402145507814</v>
+        <v>67.21340214550781</v>
       </c>
       <c r="C180">
-        <v>4.5478267476871261</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.547826747687126</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
       <c r="B181">
-        <v>66.928609056396482</v>
+        <v>66.92860905639648</v>
       </c>
       <c r="C181">
-        <v>4.5285569356128459</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.528556935612846</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>9</v>
       </c>
       <c r="B182">
-        <v>56.278623493041991</v>
+        <v>56.27862349304199</v>
       </c>
       <c r="C182">
         <v>3.8079522993135</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>19</v>
       </c>
       <c r="B183">
-        <v>43.072162714843749</v>
+        <v>43.07216271484375</v>
       </c>
       <c r="C183">
         <v>2.914370161641795</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
       <c r="B184">
-        <v>37.568669471313477</v>
+        <v>37.56866947131348</v>
       </c>
       <c r="C184">
-        <v>2.5419900561911271</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.541990056191127</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>25</v>
       </c>
       <c r="B185">
-        <v>19.936275131835941</v>
+        <v>19.93627513183594</v>
       </c>
       <c r="C185">
         <v>1.348938193866934</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -2081,40 +2043,40 @@
         <v>1.30847653775678</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
       <c r="B187">
-        <v>10.702635348144531</v>
+        <v>10.70263534814453</v>
       </c>
       <c r="C187">
-        <v>0.72416705230396539</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7241670523039654</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>5</v>
       </c>
       <c r="B188">
-        <v>6.2923784460449212</v>
+        <v>6.292378446044921</v>
       </c>
       <c r="C188">
-        <v>0.42575804958573482</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.4257580495857348</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>22</v>
       </c>
       <c r="B189">
-        <v>4.5043923602294926</v>
+        <v>4.504392360229493</v>
       </c>
       <c r="C189">
-        <v>0.30477844304892632</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3047784430489263</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -2122,12 +2084,12 @@
         <v>1477.923541825561</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
@@ -2135,15 +2097,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>28</v>
       </c>
       <c r="B194">
-        <v>7.9387303437499996</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.93873034375</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -2151,7 +2113,7 @@
         <v>4.402269640380859</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -2159,15 +2121,15 @@
         <v>12.34099998413086</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>15</v>
       </c>
       <c r="B197">
-        <v>0.82810800618960267</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.8281080061896027</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -2175,12 +2137,12 @@
         <v>1490.264541809692</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -2191,106 +2153,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
       <c r="B205">
-        <v>1276.5127870823981</v>
+        <v>1276.512787082398</v>
       </c>
       <c r="C205">
-        <v>49.699677096863077</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49.69967709686308</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>8</v>
       </c>
       <c r="B206">
-        <v>461.77336588269043</v>
+        <v>461.7733658826904</v>
       </c>
       <c r="C206">
-        <v>17.978658270048282</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17.97865827004828</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>5</v>
       </c>
       <c r="B207">
-        <v>327.99185883264158</v>
+        <v>327.9918588326416</v>
       </c>
       <c r="C207">
         <v>12.77001659469469</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>6</v>
       </c>
       <c r="B208">
-        <v>230.52354265319821</v>
+        <v>230.5235426531982</v>
       </c>
       <c r="C208">
-        <v>8.9751906514582842</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8.975190651458284</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>7</v>
       </c>
       <c r="B209">
-        <v>92.579663906616204</v>
+        <v>92.5796639066162</v>
       </c>
       <c r="C209">
-        <v>3.6044914304473261</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.604491430447326</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>9</v>
       </c>
       <c r="B210">
-        <v>81.985511570800782</v>
+        <v>81.98551157080078</v>
       </c>
       <c r="C210">
         <v>3.192019298923729</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>19</v>
       </c>
       <c r="B211">
-        <v>48.163650156860349</v>
+        <v>48.16365015686035</v>
       </c>
       <c r="C211">
-        <v>1.8752008478296009</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.875200847829601</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>10</v>
       </c>
       <c r="B212">
-        <v>34.498774903808602</v>
+        <v>34.4987749038086</v>
       </c>
       <c r="C212">
-        <v>1.3431733628579601</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.34317336285796</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>22</v>
       </c>
       <c r="B213">
-        <v>14.423723677612299</v>
+        <v>14.4237236776123</v>
       </c>
       <c r="C213">
-        <v>0.56157244687705388</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5615724468770539</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>11</v>
       </c>
@@ -2298,12 +2260,12 @@
         <v>2568.452878666626</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
@@ -2311,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -2319,7 +2281,7 @@
         <v>1.376656078491211</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -2327,28 +2289,28 @@
         <v>1.376656078491211</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>15</v>
       </c>
       <c r="B220">
-        <v>5.3569937611747137E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.05356993761174714</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>16</v>
       </c>
       <c r="B221">
-        <v>2569.8295347451171</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2569.829534745117</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -2359,18 +2321,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>4</v>
       </c>
       <c r="B228">
-        <v>774.15052039550778</v>
+        <v>774.1505203955078</v>
       </c>
       <c r="C228">
-        <v>65.063149193323369</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65.06314919332337</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -2378,10 +2340,10 @@
         <v>141.751621689209</v>
       </c>
       <c r="C229">
-        <v>11.913454383068389</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11.91345438306839</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -2389,87 +2351,87 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C230">
-        <v>6.3439697142526317</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.343969714252632</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>7</v>
       </c>
       <c r="B231">
-        <v>67.213402145507814</v>
+        <v>67.21340214550781</v>
       </c>
       <c r="C231">
         <v>5.64892161972561</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>9</v>
       </c>
       <c r="B232">
-        <v>56.278623493041991</v>
+        <v>56.27862349304199</v>
       </c>
       <c r="C232">
-        <v>4.7299128273555224</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.729912827355522</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>23</v>
       </c>
       <c r="B233">
-        <v>37.568669471313477</v>
+        <v>37.56866947131348</v>
       </c>
       <c r="C233">
-        <v>3.1574427484178771</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.157442748417877</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>25</v>
       </c>
       <c r="B234">
-        <v>19.936275131835941</v>
+        <v>19.93627513183594</v>
       </c>
       <c r="C234">
         <v>1.675535711839472</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
       <c r="B235">
-        <v>10.702635348144531</v>
+        <v>10.70263534814453</v>
       </c>
       <c r="C235">
-        <v>0.89949840770281386</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.8994984077028139</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>5</v>
       </c>
       <c r="B236">
-        <v>6.2923784460449212</v>
+        <v>6.292378446044921</v>
       </c>
       <c r="C236">
         <v>0.5288402537102378</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>26</v>
       </c>
       <c r="B237">
-        <v>0.46731323205566411</v>
+        <v>0.4673132320556641</v>
       </c>
       <c r="C237">
-        <v>3.927514060407554E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.03927514060407554</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -2477,12 +2439,12 @@
         <v>1189.844835354126</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -2490,15 +2452,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>28</v>
       </c>
       <c r="B242">
-        <v>7.9387303437499996</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.93873034375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2468,7 @@
         <v>4.402269640380859</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -2514,15 +2476,15 @@
         <v>12.34099998413086</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>15</v>
       </c>
       <c r="B245">
-        <v>1.0265467801538759</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.026546780153876</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>16</v>
       </c>
@@ -2530,12 +2492,12 @@
         <v>1202.185835338257</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -2546,73 +2508,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>4</v>
       </c>
       <c r="B253">
-        <v>2205.4928932672119</v>
+        <v>2205.492893267212</v>
       </c>
       <c r="C253">
-        <v>44.755093422627738</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44.75509342262774</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>8</v>
       </c>
       <c r="B254">
-        <v>775.99790782446291</v>
+        <v>775.9979078244629</v>
       </c>
       <c r="C254">
         <v>15.74698289278945</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
       <c r="B255">
-        <v>350.33763633251948</v>
+        <v>350.3376363325195</v>
       </c>
       <c r="C255">
-        <v>7.1092469585322844</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.109246958532284</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>5</v>
       </c>
       <c r="B256">
-        <v>334.28423727868648</v>
+        <v>334.2842372786865</v>
       </c>
       <c r="C256">
-        <v>6.7834824200935868</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.783482420093587</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>18</v>
       </c>
       <c r="B257">
-        <v>252.98075865039061</v>
+        <v>252.9807586503906</v>
       </c>
       <c r="C257">
-        <v>5.1336268287642612</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.133626828764261</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>19</v>
       </c>
       <c r="B258">
-        <v>194.92640826953121</v>
+        <v>194.9264082695312</v>
       </c>
       <c r="C258">
-        <v>3.9555555310434509</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.955555531043451</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -2623,7 +2585,7 @@
         <v>3.242610130954493</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -2631,21 +2593,21 @@
         <v>141.751621689209</v>
       </c>
       <c r="C260">
-        <v>2.8765030669001099</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.87650306690011</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>9</v>
       </c>
       <c r="B261">
-        <v>138.26413506359859</v>
+        <v>138.2641350635986</v>
       </c>
       <c r="C261">
         <v>2.80573304074594</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>22</v>
       </c>
@@ -2653,10 +2615,10 @@
         <v>101.176059114624</v>
       </c>
       <c r="C262">
-        <v>2.0531210921746941</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.053121092174694</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>21</v>
       </c>
@@ -2664,10 +2626,10 @@
         <v>75.48339600146484</v>
       </c>
       <c r="C263">
-        <v>1.5317512245066489</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.531751224506649</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -2675,32 +2637,32 @@
         <v>43.00522204333496</v>
       </c>
       <c r="C264">
-        <v>0.87268598148101739</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.8726859814810174</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>23</v>
       </c>
       <c r="B265">
-        <v>37.568669471313477</v>
+        <v>37.56866947131348</v>
       </c>
       <c r="C265">
-        <v>0.76236442070853871</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7623644207085387</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>10</v>
       </c>
       <c r="B266">
-        <v>34.498774903808602</v>
+        <v>34.4987749038086</v>
       </c>
       <c r="C266">
-        <v>0.70006840579698593</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.7000684057969859</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -2708,21 +2670,21 @@
         <v>32.28008708642578</v>
       </c>
       <c r="C267">
-        <v>0.65504555360564876</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.6550455536056488</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>25</v>
       </c>
       <c r="B268">
-        <v>19.936275131835941</v>
+        <v>19.93627513183594</v>
       </c>
       <c r="C268">
-        <v>0.40455802816156472</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.4045580281615647</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>26</v>
       </c>
@@ -2730,34 +2692,34 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C269">
-        <v>0.39242323363465581</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3924232336346558</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>30</v>
       </c>
       <c r="B270">
-        <v>10.799415369018551</v>
+        <v>10.79941536901855</v>
       </c>
       <c r="C270">
-        <v>0.21914776747894429</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2191477674789443</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>11</v>
       </c>
       <c r="B271">
-        <v>4927.9148463404536</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4927.914846340454</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>1</v>
       </c>
@@ -2765,23 +2727,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>28</v>
       </c>
       <c r="B275">
-        <v>7.9387303437499996</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.93873034375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>13</v>
       </c>
       <c r="B276">
-        <v>5.7789257187500001</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.77892571875</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2751,7 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>15</v>
       </c>
@@ -2797,20 +2759,20 @@
         <v>0.277593610124378</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>16</v>
       </c>
       <c r="B279">
-        <v>4941.6325024029538</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4941.632502402954</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>1</v>
       </c>
@@ -2821,73 +2783,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>4</v>
       </c>
       <c r="B286">
-        <v>2205.4928932672119</v>
+        <v>2205.492893267212</v>
       </c>
       <c r="C286">
-        <v>35.755636827354408</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35.75563682735441</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>8</v>
       </c>
       <c r="B287">
-        <v>864.67323629699706</v>
+        <v>864.6732362969971</v>
       </c>
       <c r="C287">
         <v>14.01815544532014</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>6</v>
       </c>
       <c r="B288">
-        <v>367.94211395959468</v>
+        <v>367.9421139595947</v>
       </c>
       <c r="C288">
-        <v>5.9651085888284339</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.965108588828434</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>5</v>
       </c>
       <c r="B289">
-        <v>334.28423727868648</v>
+        <v>334.2842372786865</v>
       </c>
       <c r="C289">
-        <v>5.4194442529077529</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.419444252907753</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>32</v>
       </c>
       <c r="B290">
-        <v>278.47010222827151</v>
+        <v>278.4701022282715</v>
       </c>
       <c r="C290">
-        <v>4.5145807873360404</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.51458078733604</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>18</v>
       </c>
       <c r="B291">
-        <v>274.24212565808108</v>
+        <v>274.2421256580811</v>
       </c>
       <c r="C291">
-        <v>4.4460364745342238</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.446036474534224</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>22</v>
       </c>
@@ -2895,21 +2857,21 @@
         <v>202.1758645983887</v>
       </c>
       <c r="C292">
-        <v>3.2776921711715201</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.27769217117152</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>19</v>
       </c>
       <c r="B293">
-        <v>194.92640826953121</v>
+        <v>194.9264082695312</v>
       </c>
       <c r="C293">
         <v>3.160163373648893</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -2920,18 +2882,18 @@
         <v>2.590578665991345</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>24</v>
       </c>
       <c r="B295">
-        <v>148.00423007580571</v>
+        <v>148.0042300758057</v>
       </c>
       <c r="C295">
-        <v>2.3994570627081808</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.399457062708181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -2939,32 +2901,32 @@
         <v>141.751621689209</v>
       </c>
       <c r="C296">
-        <v>2.2980892481133992</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.298089248113399</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>9</v>
       </c>
       <c r="B297">
-        <v>138.26413506359859</v>
+        <v>138.2641350635986</v>
       </c>
       <c r="C297">
-        <v>2.2415498207562541</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.241549820756254</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>33</v>
       </c>
       <c r="B298">
-        <v>130.63437046911619</v>
+        <v>130.6343704691162</v>
       </c>
       <c r="C298">
         <v>2.117855433550869</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -2975,7 +2937,7 @@
         <v>2.045299633471148</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>34</v>
       </c>
@@ -2983,21 +2945,21 @@
         <v>123.7092399351807</v>
       </c>
       <c r="C300">
-        <v>2.0055846331736298</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.00558463317363</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>30</v>
       </c>
       <c r="B301">
-        <v>87.946056536254886</v>
+        <v>87.94605653625489</v>
       </c>
       <c r="C301">
-        <v>1.4257888871498261</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.425788887149826</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>35</v>
       </c>
@@ -3008,7 +2970,7 @@
         <v>1.243928169977887</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>21</v>
       </c>
@@ -3019,62 +2981,62 @@
         <v>1.223743183287036</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>37</v>
       </c>
       <c r="B304">
-        <v>61.181450237060552</v>
+        <v>61.18145023706055</v>
       </c>
       <c r="C304">
-        <v>0.99187883213104122</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.9918788321310412</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>36</v>
       </c>
       <c r="B305">
-        <v>58.445564277343749</v>
+        <v>58.44556427734375</v>
       </c>
       <c r="C305">
-        <v>0.94752441816973543</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.9475244181697354</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>23</v>
       </c>
       <c r="B306">
-        <v>37.568669471313477</v>
+        <v>37.56866947131348</v>
       </c>
       <c r="C306">
-        <v>0.60906643852896403</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.609066438528964</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>10</v>
       </c>
       <c r="B307">
-        <v>34.498774903808602</v>
+        <v>34.4987749038086</v>
       </c>
       <c r="C307">
-        <v>0.55929704884330278</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.5592970488433028</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>25</v>
       </c>
       <c r="B308">
-        <v>19.936275131835941</v>
+        <v>19.93627513183594</v>
       </c>
       <c r="C308">
-        <v>0.32320857413788912</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3232085741378891</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>26</v>
       </c>
@@ -3082,45 +3044,45 @@
         <v>19.33828279077149</v>
       </c>
       <c r="C309">
-        <v>0.31351387186162583</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.3135138718616258</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>47</v>
       </c>
       <c r="B310">
-        <v>6.5600196883544921</v>
+        <v>6.560019688354492</v>
       </c>
       <c r="C310">
-        <v>0.10635159255019171</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.1063515925501917</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>39</v>
       </c>
       <c r="B311">
-        <v>2.877881005859375E-2</v>
+        <v>0.02877881005859375</v>
       </c>
       <c r="C311">
-        <v>4.6656449627190908E-4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.0004665644962719091</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>11</v>
       </c>
       <c r="B312">
-        <v>6168.2383225794674</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6168.238322579467</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>1</v>
       </c>
@@ -3128,23 +3090,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>28</v>
       </c>
       <c r="B316">
-        <v>7.9387303437499996</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.93873034375</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>13</v>
       </c>
       <c r="B317">
-        <v>5.7789257187500001</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.77892571875</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -3152,24 +3114,23 @@
         <v>13.7176560625</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>15</v>
       </c>
       <c r="B319">
-        <v>0.22189831357410361</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2218983135741036</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>16</v>
       </c>
       <c r="B320">
-        <v>6181.9559786419677</v>
+        <v>6181.955978641968</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>